--- a/published-data/fonds-solidarite/fds-2022-05-31/fonds-solidarite-volet-1-regional-naf.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-05-31/fonds-solidarite-volet-1-regional-naf.xlsx
@@ -779,13 +779,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>69571</v>
+        <v>69574</v>
       </c>
       <c r="D9" t="n">
         <v>10018</v>
       </c>
       <c r="E9" t="n">
-        <v>191359921</v>
+        <v>191367649</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -5535,13 +5535,13 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>4595</v>
+        <v>4597</v>
       </c>
       <c r="D125" t="n">
         <v>509</v>
       </c>
       <c r="E125" t="n">
-        <v>13136235</v>
+        <v>13136795</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
@@ -6560,13 +6560,13 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>95009</v>
+        <v>95010</v>
       </c>
       <c r="D150" t="n">
         <v>21156</v>
       </c>
       <c r="E150" t="n">
-        <v>278794153</v>
+        <v>278992606</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
@@ -7257,13 +7257,13 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>101528</v>
+        <v>101529</v>
       </c>
       <c r="D167" t="n">
         <v>32175</v>
       </c>
       <c r="E167" t="n">
-        <v>194956146</v>
+        <v>194966146</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
@@ -7298,13 +7298,13 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>284999</v>
+        <v>285008</v>
       </c>
       <c r="D168" t="n">
         <v>58122</v>
       </c>
       <c r="E168" t="n">
-        <v>1210233787</v>
+        <v>1210390222</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
@@ -7339,13 +7339,13 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>562599</v>
+        <v>562600</v>
       </c>
       <c r="D169" t="n">
         <v>60955</v>
       </c>
       <c r="E169" t="n">
-        <v>1284490122</v>
+        <v>1284501384</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
@@ -7380,13 +7380,13 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>367377</v>
+        <v>367381</v>
       </c>
       <c r="D170" t="n">
         <v>38110</v>
       </c>
       <c r="E170" t="n">
-        <v>2845606764</v>
+        <v>2845626697</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
@@ -7421,13 +7421,13 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>115150</v>
+        <v>115156</v>
       </c>
       <c r="D171" t="n">
         <v>20264</v>
       </c>
       <c r="E171" t="n">
-        <v>446476079</v>
+        <v>446646135</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
@@ -7503,13 +7503,13 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>54388</v>
+        <v>54389</v>
       </c>
       <c r="D173" t="n">
         <v>11601</v>
       </c>
       <c r="E173" t="n">
-        <v>151868805</v>
+        <v>151875013</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
@@ -7544,13 +7544,13 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>357225</v>
+        <v>357235</v>
       </c>
       <c r="D174" t="n">
         <v>69788</v>
       </c>
       <c r="E174" t="n">
-        <v>1017636996</v>
+        <v>1017861449</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
@@ -7585,13 +7585,13 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>125546</v>
+        <v>125553</v>
       </c>
       <c r="D175" t="n">
         <v>18100</v>
       </c>
       <c r="E175" t="n">
-        <v>812867773</v>
+        <v>812943051</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
@@ -7667,13 +7667,13 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>96755</v>
+        <v>96756</v>
       </c>
       <c r="D177" t="n">
         <v>16507</v>
       </c>
       <c r="E177" t="n">
-        <v>174735733</v>
+        <v>174740928</v>
       </c>
       <c r="F177" t="inlineStr">
         <is>
@@ -7708,13 +7708,13 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>75359</v>
+        <v>75360</v>
       </c>
       <c r="D178" t="n">
         <v>28756</v>
       </c>
       <c r="E178" t="n">
-        <v>102745918</v>
+        <v>102747363</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
@@ -7749,13 +7749,13 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>235706</v>
+        <v>235713</v>
       </c>
       <c r="D179" t="n">
         <v>29338</v>
       </c>
       <c r="E179" t="n">
-        <v>812594370</v>
+        <v>812627643</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
@@ -7790,13 +7790,13 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>141481</v>
+        <v>141482</v>
       </c>
       <c r="D180" t="n">
         <v>28890</v>
       </c>
       <c r="E180" t="n">
-        <v>340830255</v>
+        <v>340835117</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
@@ -7831,13 +7831,13 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>7893</v>
+        <v>7894</v>
       </c>
       <c r="D181" t="n">
         <v>1793</v>
       </c>
       <c r="E181" t="n">
-        <v>11289237</v>
+        <v>11291524</v>
       </c>
       <c r="F181" t="inlineStr">
         <is>
@@ -8118,13 +8118,13 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>19706</v>
+        <v>19707</v>
       </c>
       <c r="D188" t="n">
         <v>2625</v>
       </c>
       <c r="E188" t="n">
-        <v>66074807</v>
+        <v>66147299</v>
       </c>
       <c r="F188" t="inlineStr">
         <is>
@@ -8774,13 +8774,13 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>4757</v>
+        <v>4759</v>
       </c>
       <c r="D204" t="n">
         <v>729</v>
       </c>
       <c r="E204" t="n">
-        <v>11756409</v>
+        <v>11763349</v>
       </c>
       <c r="F204" t="inlineStr">
         <is>
@@ -11029,13 +11029,13 @@
         </is>
       </c>
       <c r="C259" t="n">
-        <v>6238</v>
+        <v>6240</v>
       </c>
       <c r="D259" t="n">
         <v>1547</v>
       </c>
       <c r="E259" t="n">
-        <v>14748339</v>
+        <v>14751339</v>
       </c>
       <c r="F259" t="inlineStr">
         <is>
